--- a/Munka naplo.xlsx
+++ b/Munka naplo.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tothr\Desktop\GitHub\Kirajok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kisben840\Documents\GitHub\Kirajok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01C7107-65B3-4291-BECB-E9F3384F3905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="620"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -104,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,54 +246,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,223 +580,232 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="99.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="99.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="17">
+      <c r="C1" s="9">
         <v>44848</v>
       </c>
-      <c r="D1" s="17">
+      <c r="D1" s="9">
         <v>44855</v>
       </c>
-      <c r="E1" s="18">
+      <c r="E1" s="19">
         <v>44862</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="10">
         <v>44874</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-    </row>
-    <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="3" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="1">
+        <v>44876</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="21" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-    </row>
-    <row r="3" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="5" t="s">
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="5" t="s">
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="5" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="15" t="s">
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
+    <row r="19" spans="2:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="13">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="E2:H5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="I2:L5"/>
     <mergeCell ref="M1:P1"/>
@@ -799,15 +813,6 @@
     <mergeCell ref="M3:P3"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="M5:P5"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="E2:H5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="A1:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
